--- a/assets/assets_in.xlsx
+++ b/assets/assets_in.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="86">
   <si>
     <t xml:space="preserve">Hire Radio Asset Numbers</t>
   </si>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">KB42A Batt for 4200</t>
   </si>
   <si>
-    <t xml:space="preserve">Y</t>
+    <t xml:space="preserve">XXXX</t>
   </si>
   <si>
     <t xml:space="preserve">719334010G0145</t>
@@ -296,7 +296,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -329,6 +329,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -374,7 +381,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -404,6 +411,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -453,6 +464,66 @@
       </fill>
     </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF6A8759"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -470,7 +541,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -529,7 +600,7 @@
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -549,9 +620,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="I6" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7"/>
@@ -695,884 +764,884 @@
       <c r="B53" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="8"/>
-      <c r="D63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="8"/>
-      <c r="D64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="D64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="8"/>
-      <c r="D65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="D65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="8"/>
-      <c r="D66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="D66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="8"/>
-      <c r="D67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="D67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="8"/>
-      <c r="D68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="D68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="8"/>
-      <c r="D69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="8"/>
-      <c r="D70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="8"/>
-      <c r="D71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="8"/>
-      <c r="D72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="D72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="8"/>
-      <c r="D73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="D73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="8"/>
-      <c r="D74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="D74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="8"/>
-      <c r="D75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="D75" s="10"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="8"/>
-      <c r="D76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="D76" s="10"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="8"/>
-      <c r="D77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="D77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="8"/>
-      <c r="D78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="8"/>
-      <c r="D79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="D79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="8"/>
-      <c r="D80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="8"/>
-      <c r="D81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="8"/>
-      <c r="D82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="D82" s="10"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="8"/>
-      <c r="D83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="D83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="8"/>
-      <c r="D84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="D84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="8"/>
-      <c r="D85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="D85" s="10"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="8"/>
-      <c r="D86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="D86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="8"/>
-      <c r="D87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="D87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="8"/>
-      <c r="D88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="D88" s="10"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="8"/>
-      <c r="D89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="8"/>
-      <c r="D90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="8"/>
-      <c r="D91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="D91" s="10"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="8"/>
-      <c r="D92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="D92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="8"/>
-      <c r="D93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="D93" s="10"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="8"/>
-      <c r="D94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="D94" s="10"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="8"/>
-      <c r="D95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="D95" s="10"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="8"/>
-      <c r="D96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="D96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="8"/>
-      <c r="D97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="D97" s="10"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="8"/>
-      <c r="D98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="D98" s="10"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="8"/>
-      <c r="D99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="8"/>
-      <c r="D100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="D100" s="10"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="8"/>
-      <c r="D101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="D101" s="10"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="8"/>
-      <c r="D102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="D102" s="10"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="8"/>
-      <c r="D103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="D103" s="10"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="8"/>
-      <c r="D104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="D104" s="10"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="8"/>
-      <c r="D105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="D105" s="10"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="8"/>
-      <c r="D106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="D106" s="10"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="8"/>
-      <c r="D107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="D107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="8"/>
-      <c r="D108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="D108" s="10"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="8"/>
-      <c r="D109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="D109" s="10"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="8"/>
-      <c r="D110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="D110" s="10"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="8"/>
-      <c r="D111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="D111" s="10"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="8"/>
-      <c r="D112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="D112" s="10"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="8"/>
-      <c r="D113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="D113" s="10"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="8"/>
-      <c r="D114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="D114" s="10"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="8"/>
-      <c r="D115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="D115" s="10"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="8"/>
-      <c r="D116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="D116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="8"/>
-      <c r="D117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="D117" s="10"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="8"/>
-      <c r="D118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="D118" s="10"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="8"/>
-      <c r="D119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="D119" s="10"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="8"/>
-      <c r="D120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="D120" s="10"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="8"/>
-      <c r="D121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="D121" s="10"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="8"/>
-      <c r="D122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="D122" s="10"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="8"/>
-      <c r="D123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="D123" s="10"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="8"/>
-      <c r="D124" s="9"/>
+      <c r="B124" s="9"/>
+      <c r="D124" s="10"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="8"/>
-      <c r="D125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="D125" s="10"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="8"/>
-      <c r="D126" s="9"/>
+      <c r="B126" s="9"/>
+      <c r="D126" s="10"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="8"/>
-      <c r="D127" s="9"/>
+      <c r="B127" s="9"/>
+      <c r="D127" s="10"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="8"/>
-      <c r="D128" s="9"/>
+      <c r="B128" s="9"/>
+      <c r="D128" s="10"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="8"/>
-      <c r="D129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="D129" s="10"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="8"/>
-      <c r="D130" s="9"/>
+      <c r="B130" s="9"/>
+      <c r="D130" s="10"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="8"/>
-      <c r="D131" s="9"/>
+      <c r="B131" s="9"/>
+      <c r="D131" s="10"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="8"/>
-      <c r="D132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="D132" s="10"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="8"/>
-      <c r="D133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="D133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="8"/>
-      <c r="D134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="D134" s="10"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="8"/>
-      <c r="D135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="D135" s="10"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="8"/>
-      <c r="D136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="D136" s="10"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="8"/>
-      <c r="D137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="D137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="8"/>
-      <c r="D138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="D138" s="10"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="8"/>
-      <c r="D139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="D139" s="10"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="8"/>
-      <c r="D140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="D140" s="10"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="8"/>
-      <c r="D141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="D141" s="10"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="8"/>
-      <c r="D142" s="9"/>
+      <c r="B142" s="9"/>
+      <c r="D142" s="10"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="8"/>
-      <c r="D143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="D143" s="10"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="8"/>
-      <c r="D144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="D144" s="10"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="8"/>
-      <c r="D145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="D145" s="10"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="8"/>
-      <c r="D146" s="9"/>
+      <c r="B146" s="9"/>
+      <c r="D146" s="10"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="8"/>
-      <c r="D147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="D147" s="10"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="8"/>
-      <c r="D148" s="9"/>
+      <c r="B148" s="9"/>
+      <c r="D148" s="10"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="8"/>
-      <c r="D149" s="9"/>
+      <c r="B149" s="9"/>
+      <c r="D149" s="10"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="8"/>
-      <c r="D150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="D150" s="10"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="8"/>
-      <c r="D151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="D151" s="10"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="8"/>
-      <c r="D152" s="9"/>
+      <c r="B152" s="9"/>
+      <c r="D152" s="10"/>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="8"/>
-      <c r="D153" s="9"/>
+      <c r="B153" s="9"/>
+      <c r="D153" s="10"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="8"/>
-      <c r="D154" s="9"/>
+      <c r="B154" s="9"/>
+      <c r="D154" s="10"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="8"/>
-      <c r="D155" s="9"/>
+      <c r="B155" s="9"/>
+      <c r="D155" s="10"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="8"/>
-      <c r="D156" s="9"/>
+      <c r="B156" s="9"/>
+      <c r="D156" s="10"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="8"/>
-      <c r="D157" s="9"/>
+      <c r="B157" s="9"/>
+      <c r="D157" s="10"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="8"/>
-      <c r="D158" s="9"/>
+      <c r="B158" s="9"/>
+      <c r="D158" s="10"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="8"/>
-      <c r="D159" s="9"/>
+      <c r="B159" s="9"/>
+      <c r="D159" s="10"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="8"/>
-      <c r="D160" s="9"/>
+      <c r="B160" s="9"/>
+      <c r="D160" s="10"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="8"/>
-      <c r="D161" s="9"/>
+      <c r="B161" s="9"/>
+      <c r="D161" s="10"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="8"/>
-      <c r="D162" s="9"/>
+      <c r="B162" s="9"/>
+      <c r="D162" s="10"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="8"/>
-      <c r="D163" s="9"/>
+      <c r="B163" s="9"/>
+      <c r="D163" s="10"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="8"/>
-      <c r="D164" s="9"/>
+      <c r="B164" s="9"/>
+      <c r="D164" s="10"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="8"/>
-      <c r="D165" s="9"/>
+      <c r="B165" s="9"/>
+      <c r="D165" s="10"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="8"/>
-      <c r="D166" s="9"/>
+      <c r="B166" s="9"/>
+      <c r="D166" s="10"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="8"/>
-      <c r="D167" s="9"/>
+      <c r="B167" s="9"/>
+      <c r="D167" s="10"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="8"/>
-      <c r="D168" s="9"/>
+      <c r="B168" s="9"/>
+      <c r="D168" s="10"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="8"/>
-      <c r="D169" s="9"/>
+      <c r="B169" s="9"/>
+      <c r="D169" s="10"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="8"/>
-      <c r="D170" s="9"/>
+      <c r="B170" s="9"/>
+      <c r="D170" s="10"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="8"/>
-      <c r="D171" s="9"/>
+      <c r="B171" s="9"/>
+      <c r="D171" s="10"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="8"/>
-      <c r="D172" s="9"/>
+      <c r="B172" s="9"/>
+      <c r="D172" s="10"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="8"/>
-      <c r="D173" s="9"/>
+      <c r="B173" s="9"/>
+      <c r="D173" s="10"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="8"/>
-      <c r="D174" s="9"/>
+      <c r="B174" s="9"/>
+      <c r="D174" s="10"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="8"/>
-      <c r="D175" s="9"/>
+      <c r="B175" s="9"/>
+      <c r="D175" s="10"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="8"/>
-      <c r="D176" s="9"/>
+      <c r="B176" s="9"/>
+      <c r="D176" s="10"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="8"/>
-      <c r="D177" s="9"/>
+      <c r="B177" s="9"/>
+      <c r="D177" s="10"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="8"/>
-      <c r="D178" s="9"/>
+      <c r="B178" s="9"/>
+      <c r="D178" s="10"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="8"/>
-      <c r="D179" s="9"/>
+      <c r="B179" s="9"/>
+      <c r="D179" s="10"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="8"/>
-      <c r="D180" s="9"/>
+      <c r="B180" s="9"/>
+      <c r="D180" s="10"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="8"/>
-      <c r="D181" s="9"/>
+      <c r="B181" s="9"/>
+      <c r="D181" s="10"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="8"/>
-      <c r="D182" s="9"/>
+      <c r="B182" s="9"/>
+      <c r="D182" s="10"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="8"/>
-      <c r="D183" s="9"/>
+      <c r="B183" s="9"/>
+      <c r="D183" s="10"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="8"/>
-      <c r="D184" s="9"/>
+      <c r="B184" s="9"/>
+      <c r="D184" s="10"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="8"/>
-      <c r="D185" s="9"/>
+      <c r="B185" s="9"/>
+      <c r="D185" s="10"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="8"/>
-      <c r="D186" s="9"/>
+      <c r="B186" s="9"/>
+      <c r="D186" s="10"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="8"/>
-      <c r="D187" s="9"/>
+      <c r="B187" s="9"/>
+      <c r="D187" s="10"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="8"/>
-      <c r="D188" s="9"/>
+      <c r="B188" s="9"/>
+      <c r="D188" s="10"/>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="8"/>
-      <c r="D189" s="9"/>
+      <c r="B189" s="9"/>
+      <c r="D189" s="10"/>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="8"/>
-      <c r="D190" s="9"/>
+      <c r="B190" s="9"/>
+      <c r="D190" s="10"/>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="8"/>
-      <c r="D191" s="9"/>
+      <c r="B191" s="9"/>
+      <c r="D191" s="10"/>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="8"/>
-      <c r="D192" s="9"/>
+      <c r="B192" s="9"/>
+      <c r="D192" s="10"/>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="8"/>
-      <c r="D193" s="9"/>
+      <c r="B193" s="9"/>
+      <c r="D193" s="10"/>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="10"/>
-      <c r="D194" s="11"/>
+      <c r="B194" s="11"/>
+      <c r="D194" s="12"/>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="10"/>
-      <c r="D195" s="11"/>
+      <c r="B195" s="11"/>
+      <c r="D195" s="12"/>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="10"/>
-      <c r="D196" s="11"/>
+      <c r="B196" s="11"/>
+      <c r="D196" s="12"/>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="10"/>
-      <c r="D197" s="11"/>
+      <c r="B197" s="11"/>
+      <c r="D197" s="12"/>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="10"/>
-      <c r="D198" s="11"/>
+      <c r="B198" s="11"/>
+      <c r="D198" s="12"/>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="10"/>
-      <c r="D199" s="11"/>
+      <c r="B199" s="11"/>
+      <c r="D199" s="12"/>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="10"/>
-      <c r="D200" s="11"/>
+      <c r="B200" s="11"/>
+      <c r="D200" s="12"/>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="10"/>
-      <c r="D201" s="11"/>
+      <c r="B201" s="11"/>
+      <c r="D201" s="12"/>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="10"/>
-      <c r="D202" s="11"/>
+      <c r="B202" s="11"/>
+      <c r="D202" s="12"/>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="10"/>
-      <c r="D203" s="11"/>
+      <c r="B203" s="11"/>
+      <c r="D203" s="12"/>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="10"/>
-      <c r="D204" s="11"/>
+      <c r="B204" s="11"/>
+      <c r="D204" s="12"/>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="10"/>
-      <c r="D205" s="11"/>
+      <c r="B205" s="11"/>
+      <c r="D205" s="12"/>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="10"/>
-      <c r="D206" s="11"/>
+      <c r="B206" s="11"/>
+      <c r="D206" s="12"/>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="10"/>
-      <c r="D207" s="11"/>
+      <c r="B207" s="11"/>
+      <c r="D207" s="12"/>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="10"/>
-      <c r="D208" s="11"/>
+      <c r="B208" s="11"/>
+      <c r="D208" s="12"/>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="10"/>
-      <c r="D209" s="11"/>
+      <c r="B209" s="11"/>
+      <c r="D209" s="12"/>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="10"/>
-      <c r="D210" s="11"/>
+      <c r="B210" s="11"/>
+      <c r="D210" s="12"/>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="10"/>
-      <c r="D211" s="11"/>
+      <c r="B211" s="11"/>
+      <c r="D211" s="12"/>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="10"/>
-      <c r="D212" s="11"/>
+      <c r="B212" s="11"/>
+      <c r="D212" s="12"/>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="10"/>
-      <c r="D213" s="11"/>
+      <c r="B213" s="11"/>
+      <c r="D213" s="12"/>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="10"/>
-      <c r="D214" s="11"/>
+      <c r="B214" s="11"/>
+      <c r="D214" s="12"/>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="10"/>
-      <c r="D215" s="11"/>
+      <c r="B215" s="11"/>
+      <c r="D215" s="12"/>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="10"/>
-      <c r="D216" s="11"/>
+      <c r="B216" s="11"/>
+      <c r="D216" s="12"/>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="10"/>
-      <c r="D217" s="11"/>
+      <c r="B217" s="11"/>
+      <c r="D217" s="12"/>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="10"/>
-      <c r="D218" s="11"/>
+      <c r="B218" s="11"/>
+      <c r="D218" s="12"/>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="10"/>
-      <c r="D219" s="11"/>
+      <c r="B219" s="11"/>
+      <c r="D219" s="12"/>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="10"/>
-      <c r="D220" s="11"/>
+      <c r="B220" s="11"/>
+      <c r="D220" s="12"/>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="10"/>
-      <c r="D221" s="11"/>
+      <c r="B221" s="11"/>
+      <c r="D221" s="12"/>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="10"/>
-      <c r="D222" s="11"/>
+      <c r="B222" s="11"/>
+      <c r="D222" s="12"/>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="10"/>
-      <c r="D223" s="11"/>
+      <c r="B223" s="11"/>
+      <c r="D223" s="12"/>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="10"/>
-      <c r="D224" s="11"/>
+      <c r="B224" s="11"/>
+      <c r="D224" s="12"/>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="10"/>
-      <c r="D225" s="11"/>
+      <c r="B225" s="11"/>
+      <c r="D225" s="12"/>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="10"/>
-      <c r="D226" s="11"/>
+      <c r="B226" s="11"/>
+      <c r="D226" s="12"/>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="10"/>
-      <c r="D227" s="11"/>
+      <c r="B227" s="11"/>
+      <c r="D227" s="12"/>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="10"/>
-      <c r="D228" s="11"/>
+      <c r="B228" s="11"/>
+      <c r="D228" s="12"/>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="10"/>
-      <c r="D229" s="11"/>
+      <c r="B229" s="11"/>
+      <c r="D229" s="12"/>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="10"/>
-      <c r="D230" s="11"/>
+      <c r="B230" s="11"/>
+      <c r="D230" s="12"/>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="10"/>
-      <c r="D231" s="11"/>
+      <c r="B231" s="11"/>
+      <c r="D231" s="12"/>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B232" s="10"/>
-      <c r="D232" s="11"/>
+      <c r="B232" s="11"/>
+      <c r="D232" s="12"/>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="10"/>
-      <c r="D233" s="11"/>
+      <c r="B233" s="11"/>
+      <c r="D233" s="12"/>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="10"/>
-      <c r="D234" s="11"/>
+      <c r="B234" s="11"/>
+      <c r="D234" s="12"/>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="10"/>
-      <c r="D235" s="11"/>
+      <c r="B235" s="11"/>
+      <c r="D235" s="12"/>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="10"/>
-      <c r="D236" s="11"/>
+      <c r="B236" s="11"/>
+      <c r="D236" s="12"/>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="10"/>
-      <c r="D237" s="11"/>
+      <c r="B237" s="11"/>
+      <c r="D237" s="12"/>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B238" s="10"/>
-      <c r="D238" s="11"/>
+      <c r="B238" s="11"/>
+      <c r="D238" s="12"/>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="10"/>
-      <c r="D239" s="11"/>
+      <c r="B239" s="11"/>
+      <c r="D239" s="12"/>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="10"/>
-      <c r="D240" s="11"/>
+      <c r="B240" s="11"/>
+      <c r="D240" s="12"/>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="10"/>
-      <c r="D241" s="11"/>
+      <c r="B241" s="11"/>
+      <c r="D241" s="12"/>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="10"/>
-      <c r="D242" s="11"/>
+      <c r="B242" s="11"/>
+      <c r="D242" s="12"/>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B243" s="10"/>
-      <c r="D243" s="11"/>
+      <c r="B243" s="11"/>
+      <c r="D243" s="12"/>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B244" s="10"/>
-      <c r="D244" s="11"/>
+      <c r="B244" s="11"/>
+      <c r="D244" s="12"/>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B245" s="10"/>
-      <c r="D245" s="11"/>
+      <c r="B245" s="11"/>
+      <c r="D245" s="12"/>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B246" s="10"/>
-      <c r="D246" s="11"/>
+      <c r="B246" s="11"/>
+      <c r="D246" s="12"/>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B247" s="10"/>
-      <c r="D247" s="11"/>
+      <c r="B247" s="11"/>
+      <c r="D247" s="12"/>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B248" s="10"/>
-      <c r="D248" s="11"/>
+      <c r="B248" s="11"/>
+      <c r="D248" s="12"/>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B249" s="10"/>
-      <c r="D249" s="11"/>
+      <c r="B249" s="11"/>
+      <c r="D249" s="12"/>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B250" s="10"/>
-      <c r="D250" s="11"/>
+      <c r="B250" s="11"/>
+      <c r="D250" s="12"/>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="10"/>
-      <c r="D251" s="11"/>
+      <c r="B251" s="11"/>
+      <c r="D251" s="12"/>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B252" s="10"/>
-      <c r="D252" s="11"/>
+      <c r="B252" s="11"/>
+      <c r="D252" s="12"/>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B253" s="10"/>
-      <c r="D253" s="11"/>
+      <c r="B253" s="11"/>
+      <c r="D253" s="12"/>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="10"/>
-      <c r="D254" s="11"/>
+      <c r="B254" s="11"/>
+      <c r="D254" s="12"/>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B255" s="10"/>
-      <c r="D255" s="11"/>
+      <c r="B255" s="11"/>
+      <c r="D255" s="12"/>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B256" s="10"/>
-      <c r="D256" s="11"/>
+      <c r="B256" s="11"/>
+      <c r="D256" s="12"/>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B257" s="10"/>
-      <c r="D257" s="11"/>
+      <c r="B257" s="11"/>
+      <c r="D257" s="12"/>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B258" s="10"/>
-      <c r="D258" s="11"/>
+      <c r="B258" s="11"/>
+      <c r="D258" s="12"/>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B259" s="10"/>
-      <c r="D259" s="11"/>
+      <c r="B259" s="11"/>
+      <c r="D259" s="12"/>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B260" s="10"/>
-      <c r="D260" s="11"/>
+      <c r="B260" s="11"/>
+      <c r="D260" s="12"/>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B261" s="10"/>
-      <c r="D261" s="11"/>
+      <c r="B261" s="11"/>
+      <c r="D261" s="12"/>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B262" s="10"/>
-      <c r="D262" s="11"/>
+      <c r="B262" s="11"/>
+      <c r="D262" s="12"/>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="10"/>
-      <c r="D263" s="11"/>
+      <c r="B263" s="11"/>
+      <c r="D263" s="12"/>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="10"/>
-      <c r="D264" s="11"/>
+      <c r="B264" s="11"/>
+      <c r="D264" s="12"/>
     </row>
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="8"/>
-      <c r="D265" s="9"/>
+      <c r="B265" s="9"/>
+      <c r="D265" s="10"/>
     </row>
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="8"/>
-      <c r="D266" s="9"/>
+      <c r="B266" s="9"/>
+      <c r="D266" s="10"/>
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="8"/>
-      <c r="D267" s="9"/>
+      <c r="B267" s="9"/>
+      <c r="D267" s="10"/>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B268" s="8"/>
-      <c r="D268" s="9"/>
+      <c r="B268" s="9"/>
+      <c r="D268" s="10"/>
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B269" s="8"/>
-      <c r="D269" s="9"/>
+      <c r="B269" s="9"/>
+      <c r="D269" s="10"/>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="8"/>
-      <c r="D270" s="9"/>
+      <c r="B270" s="9"/>
+      <c r="D270" s="10"/>
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B271" s="8"/>
-      <c r="D271" s="9"/>
+      <c r="B271" s="9"/>
+      <c r="D271" s="10"/>
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="8"/>
-      <c r="D272" s="9"/>
+      <c r="B272" s="9"/>
+      <c r="D272" s="10"/>
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="8"/>
-      <c r="D273" s="9"/>
+      <c r="B273" s="9"/>
+      <c r="D273" s="10"/>
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="8"/>
-      <c r="D274" s="9"/>
+      <c r="B274" s="9"/>
+      <c r="D274" s="10"/>
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="8"/>
-      <c r="D275" s="9"/>
+      <c r="B275" s="9"/>
+      <c r="D275" s="10"/>
     </row>
     <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="8"/>
-      <c r="D276" s="9"/>
+      <c r="B276" s="9"/>
+      <c r="D276" s="10"/>
     </row>
     <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="8"/>
-      <c r="D277" s="9"/>
+      <c r="B277" s="9"/>
+      <c r="D277" s="10"/>
     </row>
     <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="8"/>
-      <c r="D278" s="9"/>
+      <c r="B278" s="9"/>
+      <c r="D278" s="10"/>
     </row>
     <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="8"/>
-      <c r="D279" s="9"/>
+      <c r="B279" s="9"/>
+      <c r="D279" s="10"/>
     </row>
     <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="8"/>
-      <c r="D280" s="9"/>
+      <c r="B280" s="9"/>
+      <c r="D280" s="10"/>
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="8"/>
-      <c r="D281" s="9"/>
+      <c r="B281" s="9"/>
+      <c r="D281" s="10"/>
     </row>
     <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="8"/>
-      <c r="D282" s="9"/>
+      <c r="B282" s="9"/>
+      <c r="D282" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E1308"/>
@@ -1602,1645 +1671,1645 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="17.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="25.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="12" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="13" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="13" t="n">
         <v>871</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="13" t="n">
         <v>893</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="13" t="n">
         <v>907</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="13" t="n">
         <v>912</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="13" t="n">
         <v>1033</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="13" t="n">
         <v>1097</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="13" t="n">
         <v>1203</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="A9" s="13" t="n">
         <v>1234</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="13" t="n">
         <v>1324</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="13" t="n">
         <v>177513050001324</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+      <c r="A11" s="13" t="n">
         <v>1344</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="13" t="n">
         <v>177513050001335</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
+      <c r="A12" s="13" t="n">
         <v>1346</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="13" t="n">
         <v>177513050001334</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
+      <c r="A13" s="13" t="n">
         <v>1390</v>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="13" t="n">
         <v>177513050001385</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="13" t="n">
         <v>1396</v>
       </c>
-      <c r="B14" s="12" t="n">
+      <c r="B14" s="13" t="n">
         <v>702013050000059</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
+      <c r="A15" s="13" t="n">
         <v>1399</v>
       </c>
-      <c r="B15" s="12" t="n">
+      <c r="B15" s="13" t="n">
         <v>702013050000056</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
+      <c r="A16" s="13" t="n">
         <v>1425</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
+      <c r="A17" s="13" t="n">
         <v>1429</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
+      <c r="A18" s="13" t="n">
         <v>1431</v>
       </c>
-      <c r="B18" s="12" t="n">
+      <c r="B18" s="13" t="n">
         <v>702013090000052</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="n">
+      <c r="A19" s="13" t="n">
         <v>1440</v>
       </c>
-      <c r="B19" s="12" t="n">
+      <c r="B19" s="13" t="n">
         <v>177513080001248</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="n">
+      <c r="A20" s="13" t="n">
         <v>1442</v>
       </c>
-      <c r="B20" s="12" t="n">
+      <c r="B20" s="13" t="n">
         <v>177513080001245</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="n">
+      <c r="A21" s="13" t="n">
         <v>1499</v>
       </c>
-      <c r="B21" s="12" t="n">
+      <c r="B21" s="13" t="n">
         <v>702013120000806</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="n">
+      <c r="A22" s="13" t="n">
         <v>1520</v>
       </c>
-      <c r="B22" s="12" t="n">
+      <c r="B22" s="13" t="n">
         <v>177513120000100</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="n">
+      <c r="A23" s="13" t="n">
         <v>1524</v>
       </c>
-      <c r="B23" s="12" t="n">
+      <c r="B23" s="13" t="n">
         <v>177513120000053</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="n">
+      <c r="A24" s="13" t="n">
         <v>1530</v>
       </c>
-      <c r="B24" s="12" t="n">
+      <c r="B24" s="13" t="n">
         <v>177513120000054</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="n">
+      <c r="A25" s="13" t="n">
         <v>1543</v>
       </c>
-      <c r="B25" s="12" t="n">
+      <c r="B25" s="13" t="n">
         <v>177513120000034</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="n">
+      <c r="A26" s="13" t="n">
         <v>1551</v>
       </c>
-      <c r="B26" s="12" t="n">
+      <c r="B26" s="13" t="n">
         <v>177513120000022</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="n">
+      <c r="A27" s="13" t="n">
         <v>1552</v>
       </c>
-      <c r="B27" s="12" t="n">
+      <c r="B27" s="13" t="n">
         <v>177513120000027</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="n">
+      <c r="A28" s="13" t="n">
         <v>1563</v>
       </c>
-      <c r="B28" s="12" t="n">
+      <c r="B28" s="13" t="n">
         <v>177513100000763</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="n">
+      <c r="A29" s="13" t="n">
         <v>1572</v>
       </c>
-      <c r="B29" s="12" t="n">
+      <c r="B29" s="13" t="n">
         <v>177513100000767</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="C29" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="n">
+      <c r="A30" s="13" t="n">
         <v>1618</v>
       </c>
-      <c r="B30" s="12" t="n">
+      <c r="B30" s="13" t="n">
         <v>177514040000130</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
+      <c r="A31" s="13" t="n">
         <v>1621</v>
       </c>
-      <c r="B31" s="12" t="n">
+      <c r="B31" s="13" t="n">
         <v>177514040000206</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="13" t="s">
+      <c r="C31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="n">
+      <c r="A32" s="13" t="n">
         <v>1624</v>
       </c>
-      <c r="B32" s="12" t="n">
+      <c r="B32" s="13" t="n">
         <v>177514040000205</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="n">
+      <c r="A33" s="13" t="n">
         <v>1634</v>
       </c>
-      <c r="B33" s="12" t="n">
+      <c r="B33" s="13" t="n">
         <v>177514040000153</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="13" t="s">
+      <c r="C33" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="n">
+      <c r="A34" s="13" t="n">
         <v>1636</v>
       </c>
-      <c r="B34" s="12" t="n">
+      <c r="B34" s="13" t="n">
         <v>177514040000160</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="13" t="s">
+      <c r="C34" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="n">
+      <c r="A35" s="13" t="n">
         <v>1638</v>
       </c>
-      <c r="B35" s="12" t="n">
+      <c r="B35" s="13" t="n">
         <v>177514040000158</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="n">
+      <c r="A36" s="13" t="n">
         <v>1648</v>
       </c>
-      <c r="B36" s="12" t="n">
+      <c r="B36" s="13" t="n">
         <v>177513120000028</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="13" t="s">
+      <c r="C36" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="n">
+      <c r="A37" s="13" t="n">
         <v>1664</v>
       </c>
-      <c r="B37" s="12" t="n">
+      <c r="B37" s="13" t="n">
         <v>177514040000136</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="13" t="s">
+      <c r="C37" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="n">
+      <c r="A38" s="13" t="n">
         <v>1665</v>
       </c>
-      <c r="B38" s="12" t="n">
+      <c r="B38" s="13" t="n">
         <v>177514040000175</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="C38" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="n">
+      <c r="A39" s="13" t="n">
         <v>1691</v>
       </c>
-      <c r="B39" s="13" t="n">
+      <c r="B39" s="14" t="n">
         <v>177514060000069</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="13" t="s">
+      <c r="C39" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="n">
+      <c r="A40" s="13" t="n">
         <v>1692</v>
       </c>
-      <c r="B40" s="12" t="n">
+      <c r="B40" s="13" t="n">
         <v>177514060000084</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="13" t="s">
+      <c r="C40" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="n">
+      <c r="A41" s="13" t="n">
         <v>1696</v>
       </c>
-      <c r="B41" s="12" t="n">
+      <c r="B41" s="13" t="n">
         <v>177514060000064</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="13" t="s">
+      <c r="C41" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="n">
+      <c r="A42" s="13" t="n">
         <v>1701</v>
       </c>
-      <c r="B42" s="12" t="n">
+      <c r="B42" s="13" t="n">
         <v>177514040000174</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="13" t="s">
+      <c r="C42" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="n">
+      <c r="A43" s="13" t="n">
         <v>1734</v>
       </c>
-      <c r="B43" s="12" t="n">
+      <c r="B43" s="13" t="n">
         <v>177514060000149</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="13" t="s">
+      <c r="C43" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="n">
+      <c r="A44" s="13" t="n">
         <v>1748</v>
       </c>
-      <c r="B44" s="12" t="n">
+      <c r="B44" s="13" t="n">
         <v>177514060000096</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="13" t="s">
+      <c r="C44" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="n">
+      <c r="A45" s="13" t="n">
         <v>1753</v>
       </c>
-      <c r="B45" s="12" t="n">
+      <c r="B45" s="13" t="n">
         <v>177514060000095</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="13" t="s">
+      <c r="C45" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="n">
+      <c r="A46" s="13" t="n">
         <v>1775</v>
       </c>
-      <c r="B46" s="12" t="n">
+      <c r="B46" s="13" t="n">
         <v>177536170000293</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="13" t="s">
+      <c r="C46" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="n">
+      <c r="A47" s="13" t="n">
         <v>1792</v>
       </c>
-      <c r="B47" s="12" t="n">
+      <c r="B47" s="13" t="n">
         <v>177514060000115</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="13" t="s">
+      <c r="C47" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="n">
+      <c r="A48" s="13" t="n">
         <v>1802</v>
       </c>
-      <c r="B48" s="12" t="n">
+      <c r="B48" s="13" t="n">
         <v>177514060000012</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="13" t="s">
+      <c r="C48" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="n">
+      <c r="A49" s="13" t="n">
         <v>1812</v>
       </c>
-      <c r="B49" s="12" t="n">
+      <c r="B49" s="13" t="n">
         <v>177514060000058</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="13" t="s">
+      <c r="C49" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="n">
+      <c r="A50" s="13" t="n">
         <v>1829</v>
       </c>
-      <c r="B50" s="12" t="n">
+      <c r="B50" s="13" t="n">
         <v>177514060000028</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="13" t="s">
+      <c r="C50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="n">
+      <c r="A51" s="13" t="n">
         <v>1841</v>
       </c>
-      <c r="B51" s="12" t="n">
+      <c r="B51" s="13" t="n">
         <v>177514060000060</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="13" t="s">
+      <c r="C51" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="n">
+      <c r="A52" s="13" t="n">
         <v>1926</v>
       </c>
-      <c r="B52" s="12" t="n">
+      <c r="B52" s="13" t="n">
         <v>177515040000155</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="13" t="s">
+      <c r="C52" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="n">
+      <c r="A53" s="13" t="n">
         <v>1933</v>
       </c>
-      <c r="B53" s="12" t="n">
+      <c r="B53" s="13" t="n">
         <v>177515040000178</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="13" t="s">
+      <c r="C53" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="n">
+      <c r="A54" s="13" t="n">
         <v>1954</v>
       </c>
-      <c r="B54" s="12" t="n">
+      <c r="B54" s="13" t="n">
         <v>177515040000077</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="13" t="s">
+      <c r="C54" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="n">
+      <c r="A55" s="13" t="n">
         <v>1985</v>
       </c>
-      <c r="B55" s="12" t="n">
+      <c r="B55" s="13" t="n">
         <v>702014070000017</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="13" t="s">
+      <c r="C55" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="n">
+      <c r="A56" s="13" t="n">
         <v>1996</v>
       </c>
-      <c r="B56" s="12" t="n">
+      <c r="B56" s="13" t="n">
         <v>177515040000146</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="13" t="s">
+      <c r="C56" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="n">
+      <c r="A57" s="13" t="n">
         <v>2248</v>
       </c>
-      <c r="B57" s="12" t="n">
+      <c r="B57" s="13" t="n">
         <v>702014060000486</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="13" t="s">
+      <c r="C57" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="n">
+      <c r="A58" s="13" t="n">
         <v>2446</v>
       </c>
-      <c r="B58" s="12" t="n">
+      <c r="B58" s="13" t="n">
         <v>702014070000001</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="13" t="s">
+      <c r="C58" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="n">
+      <c r="A59" s="13" t="n">
         <v>3327</v>
       </c>
-      <c r="B59" s="12" t="n">
+      <c r="B59" s="13" t="n">
         <v>702036030000013</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="13" t="s">
+      <c r="C59" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="13" t="s">
+      <c r="C60" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="13" t="s">
+      <c r="C61" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="13" t="s">
+      <c r="C62" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="13" t="s">
+      <c r="C63" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="13" t="s">
+      <c r="C64" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="13" t="s">
+      <c r="C65" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="13" t="s">
+      <c r="C66" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="13" t="s">
+      <c r="C67" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="13" t="s">
+      <c r="C68" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="13" t="s">
+      <c r="C69" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="13" t="s">
+      <c r="C70" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="13" t="s">
+      <c r="C71" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="13" t="s">
+      <c r="C72" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="13" t="s">
+      <c r="C73" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="13" t="s">
+      <c r="C74" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="13" t="s">
+      <c r="C75" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="13" t="s">
+      <c r="C76" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="13" t="s">
+      <c r="C77" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="13" t="s">
+      <c r="C78" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="13" t="s">
+      <c r="C79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="13" t="s">
+      <c r="C80" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="13" t="s">
+      <c r="C81" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C82" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="13" t="s">
+      <c r="C82" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="13" t="s">
+      <c r="C83" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="13" t="s">
+      <c r="C84" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="13" t="s">
+      <c r="C85" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="13" t="s">
+      <c r="C86" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="13" t="s">
+      <c r="C87" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C88" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="13" t="s">
+      <c r="C88" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C89" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="13" t="s">
+      <c r="C89" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C90" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="13" t="s">
+      <c r="C90" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C91" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="13" t="s">
+      <c r="C91" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C92" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="13" t="s">
+      <c r="C92" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C93" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="13" t="s">
+      <c r="C93" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C94" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="13" t="s">
+      <c r="C94" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C95" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="13" t="s">
+      <c r="C95" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C96" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="13" t="s">
+      <c r="C96" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C97" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="13" t="s">
+      <c r="C97" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C98" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="13" t="s">
+      <c r="C98" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C99" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="13" t="s">
+      <c r="C99" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C100" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="13" t="s">
+      <c r="C100" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C101" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="13" t="s">
+      <c r="C101" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C102" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="13" t="s">
+      <c r="C102" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C103" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="13" t="s">
+      <c r="C103" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C104" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104" s="13" t="s">
+      <c r="C104" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C105" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="13" t="s">
+      <c r="C105" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C106" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="13" t="s">
+      <c r="C106" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="13" t="s">
+      <c r="A107" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C107" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" s="13" t="s">
+      <c r="C107" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="13" t="s">
+      <c r="A108" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C108" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" s="13" t="s">
+      <c r="C108" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C109" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="13" t="s">
+      <c r="C109" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="12" t="n">
+      <c r="A110" s="13" t="n">
         <v>2827</v>
       </c>
-      <c r="B110" s="12" t="n">
+      <c r="B110" s="13" t="n">
         <v>177536170000106</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="12" t="n">
+      <c r="A111" s="13" t="n">
         <v>2213</v>
       </c>
-      <c r="B111" s="12" t="n">
+      <c r="B111" s="13" t="n">
         <v>177515040000559</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="12" t="n">
+      <c r="A112" s="13" t="n">
         <v>2564</v>
       </c>
-      <c r="B112" s="12" t="n">
+      <c r="B112" s="13" t="n">
         <v>177536170000271</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="12" t="n">
+      <c r="A113" s="13" t="n">
         <v>2792</v>
       </c>
-      <c r="B113" s="12" t="n">
+      <c r="B113" s="13" t="n">
         <v>177536170000056</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="12" t="n">
+      <c r="A114" s="13" t="n">
         <v>1795</v>
       </c>
-      <c r="B114" s="12" t="n">
+      <c r="B114" s="13" t="n">
         <v>177514060000014</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="12" t="n">
+      <c r="A115" s="13" t="n">
         <v>1942</v>
       </c>
-      <c r="B115" s="12" t="n">
+      <c r="B115" s="13" t="n">
         <v>177515040000171</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="12" t="n">
+      <c r="A116" s="13" t="n">
         <v>1814</v>
       </c>
-      <c r="B116" s="12" t="n">
+      <c r="B116" s="13" t="n">
         <v>177514060000021</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="12" t="n">
+      <c r="A117" s="13" t="n">
         <v>2653</v>
       </c>
-      <c r="B117" s="12" t="n">
+      <c r="B117" s="13" t="n">
         <v>177536170000031</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="12" t="n">
+      <c r="A118" s="13" t="n">
         <v>1747</v>
       </c>
-      <c r="B118" s="12" t="n">
+      <c r="B118" s="13" t="n">
         <v>177514060000005</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="12" t="n">
+      <c r="A119" s="13" t="n">
         <v>2660</v>
       </c>
-      <c r="B119" s="12" t="n">
+      <c r="B119" s="13" t="n">
         <v>177536170000032</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="12" t="n">
+      <c r="A120" s="13" t="n">
         <v>2587</v>
       </c>
-      <c r="B120" s="12" t="n">
+      <c r="B120" s="13" t="n">
         <v>177536170000085</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="12" t="n">
+      <c r="A121" s="13" t="n">
         <v>2112</v>
       </c>
-      <c r="B121" s="12" t="n">
+      <c r="B121" s="13" t="n">
         <v>177515040000060</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="12" t="n">
+      <c r="A122" s="13" t="n">
         <v>2445</v>
       </c>
-      <c r="B122" s="12" t="n">
+      <c r="B122" s="13" t="n">
         <v>177534020000034</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="12" t="n">
+      <c r="A123" s="13" t="n">
         <v>2745</v>
       </c>
-      <c r="B123" s="12" t="n">
+      <c r="B123" s="13" t="n">
         <v>177536170000182</v>
       </c>
     </row>
@@ -3285,7 +3354,7 @@
       <c r="B1" s="2" t="n">
         <v>41885</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3296,7 +3365,7 @@
       <c r="B2" s="2" t="n">
         <v>41885</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3307,7 +3376,7 @@
       <c r="B3" s="2" t="n">
         <v>41885</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3318,7 +3387,7 @@
       <c r="B4" s="2" t="n">
         <v>41885</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3329,7 +3398,7 @@
       <c r="B5" s="2" t="n">
         <v>41885</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3340,7 +3409,7 @@
       <c r="B6" s="2" t="n">
         <v>41885</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3351,7 +3420,7 @@
       <c r="B7" s="2" t="n">
         <v>41885</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3362,7 +3431,7 @@
       <c r="B8" s="2" t="n">
         <v>42067</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3373,7 +3442,7 @@
       <c r="B9" s="2" t="n">
         <v>42067</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3384,7 +3453,7 @@
       <c r="B10" s="2" t="n">
         <v>42067</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3395,7 +3464,7 @@
       <c r="B11" s="2" t="n">
         <v>42067</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3406,7 +3475,7 @@
       <c r="B12" s="2" t="n">
         <v>42067</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3417,7 +3486,7 @@
       <c r="B13" s="2" t="n">
         <v>42067</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3428,7 +3497,7 @@
       <c r="B14" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3439,7 +3508,7 @@
       <c r="B15" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3450,7 +3519,7 @@
       <c r="B16" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3461,7 +3530,7 @@
       <c r="B17" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3472,7 +3541,7 @@
       <c r="B18" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3483,7 +3552,7 @@
       <c r="B19" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3494,7 +3563,7 @@
       <c r="B20" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3505,7 +3574,7 @@
       <c r="B21" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3516,7 +3585,7 @@
       <c r="B22" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3527,7 +3596,7 @@
       <c r="B23" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3538,7 +3607,7 @@
       <c r="B24" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3549,7 +3618,7 @@
       <c r="B25" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3560,7 +3629,7 @@
       <c r="B26" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3571,7 +3640,7 @@
       <c r="B27" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3582,7 +3651,7 @@
       <c r="B28" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3593,7 +3662,7 @@
       <c r="B29" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3604,7 +3673,7 @@
       <c r="B30" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3615,7 +3684,7 @@
       <c r="B31" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3626,7 +3695,7 @@
       <c r="B32" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3637,7 +3706,7 @@
       <c r="B33" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3648,7 +3717,7 @@
       <c r="B34" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3659,7 +3728,7 @@
       <c r="B35" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3670,7 +3739,7 @@
       <c r="B36" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3681,7 +3750,7 @@
       <c r="B37" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3692,7 +3761,7 @@
       <c r="B38" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3703,7 +3772,7 @@
       <c r="B39" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3714,7 +3783,7 @@
       <c r="B40" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3725,7 +3794,7 @@
       <c r="B41" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3736,7 +3805,7 @@
       <c r="B42" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3747,7 +3816,7 @@
       <c r="B43" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="15" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3758,7 +3827,7 @@
       <c r="B44" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="15" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3769,7 +3838,7 @@
       <c r="B45" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="15" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4777,658 +4846,658 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="17.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="12" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="13" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="13" t="n">
         <v>1665</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="13" t="n">
         <v>177514040000175</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="13" t="n">
         <v>907</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="13" t="n">
         <v>1203</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="13" t="n">
         <v>1552</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="13" t="n">
         <v>177513120000027</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="13" t="n">
         <v>1996</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="13" t="n">
         <v>177515040000146</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="13" t="n">
         <v>1346</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="13" t="n">
         <v>177513050001334</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="13" t="n">
         <v>1954</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="13" t="n">
         <v>177515040000077</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="A9" s="13" t="n">
         <v>1440</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="13" t="n">
         <v>177513080001248</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="13" t="n">
         <v>1551</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="13" t="n">
         <v>177513120000022</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+      <c r="A11" s="13" t="n">
         <v>1390</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="13" t="n">
         <v>177513050001385</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
+      <c r="A12" s="13" t="n">
         <v>871</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
+      <c r="A13" s="13" t="n">
         <v>1812</v>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="13" t="n">
         <v>177514060000058</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="13" t="n">
         <v>1572</v>
       </c>
-      <c r="B14" s="12" t="n">
+      <c r="B14" s="13" t="n">
         <v>177513100000767</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
+      <c r="A15" s="13" t="n">
         <v>1520</v>
       </c>
-      <c r="B15" s="12" t="n">
+      <c r="B15" s="13" t="n">
         <v>177513120000100</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
+      <c r="A16" s="13" t="n">
         <v>1734</v>
       </c>
-      <c r="B16" s="12" t="n">
+      <c r="B16" s="13" t="n">
         <v>177514060000149</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
+      <c r="A17" s="13" t="n">
         <v>1425</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
+      <c r="A18" s="13" t="n">
         <v>1524</v>
       </c>
-      <c r="B18" s="12" t="n">
+      <c r="B18" s="13" t="n">
         <v>177513120000053</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="n">
+      <c r="A19" s="13" t="n">
         <v>1792</v>
       </c>
-      <c r="B19" s="12" t="n">
+      <c r="B19" s="13" t="n">
         <v>177514060000115</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="n">
+      <c r="A20" s="13" t="n">
         <v>1753</v>
       </c>
-      <c r="B20" s="12" t="n">
+      <c r="B20" s="13" t="n">
         <v>177514060000095</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="n">
+      <c r="A21" s="13" t="n">
         <v>1933</v>
       </c>
-      <c r="B21" s="12" t="n">
+      <c r="B21" s="13" t="n">
         <v>177515040000178</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="n">
+      <c r="A22" s="13" t="n">
         <v>1621</v>
       </c>
-      <c r="B22" s="12" t="n">
+      <c r="B22" s="13" t="n">
         <v>177514040000206</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="n">
+      <c r="A23" s="13" t="n">
         <v>1636</v>
       </c>
-      <c r="B23" s="12" t="n">
+      <c r="B23" s="13" t="n">
         <v>177514040000160</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="n">
+      <c r="A24" s="13" t="n">
         <v>1344</v>
       </c>
-      <c r="B24" s="12" t="n">
+      <c r="B24" s="13" t="n">
         <v>177513050001335</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="n">
+      <c r="A25" s="13" t="n">
         <v>1926</v>
       </c>
-      <c r="B25" s="12" t="n">
+      <c r="B25" s="13" t="n">
         <v>177515040000155</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="n">
+      <c r="A26" s="13" t="n">
         <v>1442</v>
       </c>
-      <c r="B26" s="12" t="n">
+      <c r="B26" s="13" t="n">
         <v>177513080001245</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="n">
+      <c r="A27" s="13" t="n">
         <v>1530</v>
       </c>
-      <c r="B27" s="12" t="n">
+      <c r="B27" s="13" t="n">
         <v>177513120000054</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="n">
+      <c r="A28" s="13" t="n">
         <v>1624</v>
       </c>
-      <c r="B28" s="12" t="n">
+      <c r="B28" s="13" t="n">
         <v>177514040000205</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="n">
+      <c r="A29" s="13" t="n">
         <v>1692</v>
       </c>
-      <c r="B29" s="12" t="n">
+      <c r="B29" s="13" t="n">
         <v>177514060000084</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="n">
+      <c r="A30" s="13" t="n">
         <v>1696</v>
       </c>
-      <c r="B30" s="12" t="n">
+      <c r="B30" s="13" t="n">
         <v>177514060000064</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
+      <c r="A31" s="13" t="n">
         <v>1748</v>
       </c>
-      <c r="B31" s="12" t="n">
+      <c r="B31" s="13" t="n">
         <v>177514060000096</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="n">
+      <c r="A32" s="13" t="n">
         <v>1033</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="n">
+      <c r="A33" s="13" t="n">
         <v>1563</v>
       </c>
-      <c r="B33" s="12" t="n">
+      <c r="B33" s="13" t="n">
         <v>177513100000763</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="n">
+      <c r="A34" s="13" t="n">
         <v>1429</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="n">
+      <c r="A35" s="13" t="n">
         <v>1829</v>
       </c>
-      <c r="B35" s="12" t="n">
+      <c r="B35" s="13" t="n">
         <v>177514060000028</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="n">
+      <c r="A36" s="13" t="n">
         <v>1097</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="n">
+      <c r="A37" s="13" t="n">
         <v>1234</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="n">
+      <c r="A38" s="13" t="n">
         <v>1841</v>
       </c>
-      <c r="B38" s="12" t="n">
+      <c r="B38" s="13" t="n">
         <v>177514060000060</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="n">
+      <c r="A39" s="13" t="n">
         <v>1618</v>
       </c>
-      <c r="B39" s="12" t="n">
+      <c r="B39" s="13" t="n">
         <v>177514040000130</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="n">
+      <c r="A40" s="13" t="n">
         <v>1691</v>
       </c>
-      <c r="B40" s="13" t="n">
+      <c r="B40" s="14" t="n">
         <v>177514060000069</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="n">
+      <c r="A41" s="13" t="n">
         <v>893</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="n">
+      <c r="A42" s="13" t="n">
         <v>1638</v>
       </c>
-      <c r="B42" s="12" t="n">
+      <c r="B42" s="13" t="n">
         <v>177514040000158</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="n">
+      <c r="A43" s="13" t="n">
         <v>1802</v>
       </c>
-      <c r="B43" s="12" t="n">
+      <c r="B43" s="13" t="n">
         <v>177514060000012</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="n">
+      <c r="A44" s="13" t="n">
         <v>1648</v>
       </c>
-      <c r="B44" s="12" t="n">
+      <c r="B44" s="13" t="n">
         <v>177513120000028</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="n">
+      <c r="A45" s="13" t="n">
         <v>1775</v>
       </c>
-      <c r="B45" s="12" t="n">
+      <c r="B45" s="13" t="n">
         <v>177536170000293</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="n">
+      <c r="A46" s="13" t="n">
         <v>1324</v>
       </c>
-      <c r="B46" s="12" t="n">
+      <c r="B46" s="13" t="n">
         <v>177513050001324</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="n">
+      <c r="A47" s="13" t="n">
         <v>912</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="n">
+      <c r="A48" s="13" t="n">
         <v>1664</v>
       </c>
-      <c r="B48" s="12" t="n">
+      <c r="B48" s="13" t="n">
         <v>177514040000136</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="n">
+      <c r="A49" s="13" t="n">
         <v>1634</v>
       </c>
-      <c r="B49" s="12" t="n">
+      <c r="B49" s="13" t="n">
         <v>177514040000153</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="n">
+      <c r="A50" s="13" t="n">
         <v>1701</v>
       </c>
-      <c r="B50" s="12" t="n">
+      <c r="B50" s="13" t="n">
         <v>177514040000174</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="n">
+      <c r="A51" s="13" t="n">
         <v>1543</v>
       </c>
-      <c r="B51" s="12" t="n">
+      <c r="B51" s="13" t="n">
         <v>177513120000034</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="n">
+      <c r="A52" s="13" t="n">
         <v>1431</v>
       </c>
-      <c r="B52" s="12" t="n">
+      <c r="B52" s="13" t="n">
         <v>702013090000052</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="n">
+      <c r="A53" s="13" t="n">
         <v>1396</v>
       </c>
-      <c r="B53" s="12" t="n">
+      <c r="B53" s="13" t="n">
         <v>702013050000059</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="n">
+      <c r="A54" s="13" t="n">
         <v>2446</v>
       </c>
-      <c r="B54" s="12" t="n">
+      <c r="B54" s="13" t="n">
         <v>702014070000001</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="n">
+      <c r="A55" s="13" t="n">
         <v>3327</v>
       </c>
-      <c r="B55" s="12" t="n">
+      <c r="B55" s="13" t="n">
         <v>702036030000013</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="n">
+      <c r="A56" s="13" t="n">
         <v>1399</v>
       </c>
-      <c r="B56" s="12" t="n">
+      <c r="B56" s="13" t="n">
         <v>702013050000056</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="n">
+      <c r="A57" s="13" t="n">
         <v>1499</v>
       </c>
-      <c r="B57" s="12" t="n">
+      <c r="B57" s="13" t="n">
         <v>702013120000806</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="n">
+      <c r="A58" s="13" t="n">
         <v>1985</v>
       </c>
-      <c r="B58" s="12" t="n">
+      <c r="B58" s="13" t="n">
         <v>702014070000017</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="n">
+      <c r="A59" s="13" t="n">
         <v>2248</v>
       </c>
-      <c r="B59" s="12" t="n">
+      <c r="B59" s="13" t="n">
         <v>702014060000486</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="14" t="s">
         <v>28</v>
       </c>
     </row>
